--- a/biology/Biologie cellulaire et moléculaire/Wnt1/Wnt1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Wnt1/Wnt1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wnt1 est une protéine de la famille Wnt codée par le gène Wnt1.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une glycoprotéine dont le gène se situe sur le chromosome 12 humain.
 </t>
@@ -542,9 +556,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle intervient dans le développement du cerveau du fœtus[1] et a un rôle dans le développement de certains cancers chez la souris par sa forme soluble[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle intervient dans le développement du cerveau du fœtus et a un rôle dans le développement de certains cancers chez la souris par sa forme soluble. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène peut entrainer une forme récessive d'ostéogenèse imparfaite ou une ostéoporose familiale précoce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène peut entrainer une forme récessive d'ostéogenèse imparfaite ou une ostéoporose familiale précoce.
 </t>
         </is>
       </c>
